--- a/Excel/29-04-2024.xlsx
+++ b/Excel/29-04-2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acviss\Desktop\Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51E3748B-4928-4C9B-ACB8-E99310B57C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C069B13-CE72-4426-85F6-F6042AD107F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{49EC3662-AF23-400E-A471-F0511447A481}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{49EC3662-AF23-400E-A471-F0511447A481}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,9 +114,6 @@
     <t>CORAGEN</t>
   </si>
   <si>
-    <t>10 ML</t>
-  </si>
-  <si>
     <t>SKU</t>
   </si>
   <si>
@@ -403,6 +400,9 @@
   </si>
   <si>
     <t>2024-04-28 03:11:09.440664+00:00</t>
+  </si>
+  <si>
+    <t>10ML</t>
   </si>
 </sst>
 </file>
@@ -757,7 +757,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,34 +865,34 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="F2">
         <v>11006845</v>
       </c>
       <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -904,15 +904,15 @@
         <v>44000</v>
       </c>
       <c r="V2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -921,34 +921,34 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="F3">
         <v>11006845</v>
       </c>
       <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>30</v>
       </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
       <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
         <v>37</v>
       </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -960,15 +960,15 @@
         <v>44000</v>
       </c>
       <c r="V3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -977,34 +977,34 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="F4">
         <v>11006845</v>
       </c>
       <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>29</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>30</v>
       </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
       <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
         <v>41</v>
       </c>
-      <c r="N4" t="s">
-        <v>42</v>
-      </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
@@ -1016,15 +1016,15 @@
         <v>44000</v>
       </c>
       <c r="V4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
         <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -1033,34 +1033,34 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="F5">
         <v>11006845</v>
       </c>
       <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>29</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>30</v>
       </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
       <c r="M5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" t="s">
         <v>45</v>
       </c>
-      <c r="N5" t="s">
-        <v>46</v>
-      </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
@@ -1072,51 +1072,51 @@
         <v>44000</v>
       </c>
       <c r="V5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
       </c>
       <c r="F6">
         <v>11000062</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
         <v>52</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>53</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>54</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>56</v>
       </c>
-      <c r="N6" t="s">
-        <v>57</v>
-      </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
@@ -1128,51 +1128,51 @@
         <v>5976</v>
       </c>
       <c r="V6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
         <v>59</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>60</v>
       </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
       <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
         <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
       </c>
       <c r="F7">
         <v>11000062</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" t="s">
         <v>52</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>53</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>54</v>
       </c>
-      <c r="K7" t="s">
-        <v>55</v>
-      </c>
       <c r="M7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" t="s">
         <v>62</v>
       </c>
-      <c r="N7" t="s">
-        <v>63</v>
-      </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
@@ -1184,51 +1184,51 @@
         <v>5976</v>
       </c>
       <c r="V7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
         <v>64</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>65</v>
       </c>
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
       <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
         <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
       </c>
       <c r="F8">
         <v>11000062</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" t="s">
         <v>52</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>53</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>54</v>
       </c>
-      <c r="K8" t="s">
-        <v>55</v>
-      </c>
       <c r="M8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" t="s">
         <v>67</v>
       </c>
-      <c r="N8" t="s">
-        <v>68</v>
-      </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
@@ -1240,51 +1240,51 @@
         <v>5976</v>
       </c>
       <c r="V8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
       <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
         <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
       </c>
       <c r="F9">
         <v>11000062</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
         <v>52</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>53</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>54</v>
       </c>
-      <c r="K9" t="s">
-        <v>55</v>
-      </c>
       <c r="M9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" t="s">
         <v>72</v>
       </c>
-      <c r="N9" t="s">
-        <v>73</v>
-      </c>
       <c r="O9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P9" t="b">
         <v>1</v>
@@ -1296,51 +1296,51 @@
         <v>5976</v>
       </c>
       <c r="V9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
         <v>74</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>75</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>76</v>
       </c>
-      <c r="D10" t="s">
-        <v>77</v>
-      </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10">
         <v>11000062</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" t="s">
         <v>78</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>79</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>80</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>81</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>82</v>
       </c>
-      <c r="N10" t="s">
-        <v>83</v>
-      </c>
       <c r="O10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
@@ -1352,51 +1352,51 @@
         <v>5976</v>
       </c>
       <c r="V10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
         <v>85</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>86</v>
       </c>
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11">
         <v>11000062</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s">
         <v>78</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>79</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>80</v>
       </c>
-      <c r="K11" t="s">
-        <v>81</v>
-      </c>
       <c r="M11" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" t="s">
         <v>88</v>
       </c>
-      <c r="N11" t="s">
-        <v>89</v>
-      </c>
       <c r="O11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
@@ -1408,48 +1408,48 @@
         <v>5976</v>
       </c>
       <c r="V11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
         <v>90</v>
       </c>
-      <c r="B12" t="s">
-        <v>91</v>
-      </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12">
         <v>11000062</v>
       </c>
       <c r="G12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s">
         <v>92</v>
       </c>
-      <c r="H12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>93</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" t="s">
         <v>94</v>
       </c>
-      <c r="K12" t="s">
-        <v>81</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>95</v>
       </c>
-      <c r="N12" t="s">
-        <v>96</v>
-      </c>
       <c r="O12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
@@ -1464,48 +1464,48 @@
         <v>5976</v>
       </c>
       <c r="V12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" t="s">
         <v>97</v>
       </c>
-      <c r="B13" t="s">
-        <v>98</v>
-      </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13">
         <v>11000062</v>
       </c>
       <c r="G13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s">
         <v>92</v>
       </c>
-      <c r="H13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>93</v>
       </c>
-      <c r="J13" t="s">
-        <v>94</v>
-      </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M13" t="s">
+        <v>98</v>
+      </c>
+      <c r="N13" t="s">
         <v>99</v>
       </c>
-      <c r="N13" t="s">
-        <v>100</v>
-      </c>
       <c r="O13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
@@ -1520,51 +1520,51 @@
         <v>5976</v>
       </c>
       <c r="V13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>102</v>
       </c>
-      <c r="C14" t="s">
-        <v>103</v>
-      </c>
       <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
         <v>50</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
       </c>
       <c r="F14">
         <v>11000062</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" t="s">
         <v>104</v>
       </c>
-      <c r="I14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>105</v>
       </c>
-      <c r="N14" t="s">
-        <v>106</v>
-      </c>
       <c r="O14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
@@ -1576,51 +1576,51 @@
         <v>5976</v>
       </c>
       <c r="V14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
         <v>108</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>109</v>
       </c>
-      <c r="C15" t="s">
-        <v>110</v>
-      </c>
       <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
         <v>50</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
       </c>
       <c r="F15">
         <v>11000062</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" t="s">
         <v>79</v>
       </c>
-      <c r="J15" t="s">
-        <v>80</v>
-      </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M15" t="s">
+        <v>110</v>
+      </c>
+      <c r="N15" t="s">
         <v>111</v>
       </c>
-      <c r="N15" t="s">
-        <v>112</v>
-      </c>
       <c r="O15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
@@ -1632,51 +1632,51 @@
         <v>5976</v>
       </c>
       <c r="V15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
         <v>113</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>114</v>
       </c>
-      <c r="C16" t="s">
-        <v>115</v>
-      </c>
       <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
         <v>50</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
       </c>
       <c r="F16">
         <v>11000062</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" t="s">
         <v>79</v>
       </c>
-      <c r="J16" t="s">
-        <v>80</v>
-      </c>
       <c r="K16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M16" t="s">
+        <v>115</v>
+      </c>
+      <c r="N16" t="s">
         <v>116</v>
       </c>
-      <c r="N16" t="s">
-        <v>117</v>
-      </c>
       <c r="O16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
@@ -1688,51 +1688,51 @@
         <v>5976</v>
       </c>
       <c r="V16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
         <v>118</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>119</v>
       </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
       <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
         <v>50</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
       </c>
       <c r="F17">
         <v>11000062</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" t="s">
         <v>79</v>
       </c>
-      <c r="J17" t="s">
-        <v>80</v>
-      </c>
       <c r="K17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M17" t="s">
+        <v>120</v>
+      </c>
+      <c r="N17" t="s">
         <v>121</v>
       </c>
-      <c r="N17" t="s">
-        <v>122</v>
-      </c>
       <c r="O17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
@@ -1744,7 +1744,7 @@
         <v>5976</v>
       </c>
       <c r="V17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/29-04-2024.xlsx
+++ b/Excel/29-04-2024.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acviss\Desktop\Automation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C069B13-CE72-4426-85F6-F6042AD107F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A5844CB5-F2C8-4983-8939-70DD32AFD393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{49EC3662-AF23-400E-A471-F0511447A481}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17496" windowHeight="12384" xr2:uid="{49EC3662-AF23-400E-A471-F0511447A481}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -757,7 +753,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Excel/29-04-2024.xlsx
+++ b/Excel/29-04-2024.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A5844CB5-F2C8-4983-8939-70DD32AFD393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acviss\Desktop\Automation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C069B13-CE72-4426-85F6-F6042AD107F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17496" windowHeight="12384" xr2:uid="{49EC3662-AF23-400E-A471-F0511447A481}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{49EC3662-AF23-400E-A471-F0511447A481}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -753,7 +757,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
